--- a/result/TrailATR/summary_NIKKEI_M15_2017-2020_0.xlsx
+++ b/result/TrailATR/summary_NIKKEI_M15_2017-2020_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -554,54 +554,54 @@
         <v>2020</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K2" t="n">
-        <v>-6260</v>
+        <v>5885</v>
       </c>
       <c r="L2" t="n">
-        <v>-6154</v>
+        <v>-1292</v>
       </c>
       <c r="M2" t="n">
-        <v>4519</v>
+        <v>4177</v>
       </c>
       <c r="N2" t="n">
-        <v>-106</v>
+        <v>7177</v>
       </c>
       <c r="O2" t="n">
-        <v>-470</v>
+        <v>-1145</v>
       </c>
       <c r="P2" t="n">
-        <v>1760</v>
+        <v>2265</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.02345651692852401</v>
+        <v>1.718218817333014</v>
       </c>
       <c r="R2" t="n">
-        <v>105.02499677548</v>
+        <v>124.924380615988</v>
       </c>
       <c r="S2" t="n">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1792431953972118</v>
+        <v>0.3650945654776155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -620,54 +620,54 @@
         <v>2020</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="I3" t="n">
         <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>-9399</v>
+        <v>1164</v>
       </c>
       <c r="L3" t="n">
-        <v>-6604</v>
+        <v>-3250</v>
       </c>
       <c r="M3" t="n">
-        <v>5261</v>
+        <v>4835</v>
       </c>
       <c r="N3" t="n">
-        <v>-2795</v>
+        <v>4414</v>
       </c>
       <c r="O3" t="n">
-        <v>-550</v>
+        <v>-526</v>
       </c>
       <c r="P3" t="n">
-        <v>1990</v>
+        <v>1828</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.5312678198061205</v>
+        <v>0.9129265770423992</v>
       </c>
       <c r="R3" t="n">
-        <v>95.91575663829487</v>
+        <v>104.5871346616297</v>
       </c>
       <c r="S3" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2079452575555978</v>
+        <v>0.1880041365046536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -686,54 +686,54 @@
         <v>2020</v>
       </c>
       <c r="G4" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>-10824</v>
+        <v>-4828</v>
       </c>
       <c r="L4" t="n">
-        <v>-6876</v>
+        <v>-4854</v>
       </c>
       <c r="M4" t="n">
-        <v>7641</v>
+        <v>7451</v>
       </c>
       <c r="N4" t="n">
-        <v>-3948</v>
+        <v>26</v>
       </c>
       <c r="O4" t="n">
-        <v>-827</v>
+        <v>-1109</v>
       </c>
       <c r="P4" t="n">
-        <v>2020</v>
+        <v>2408</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.5166862976050255</v>
+        <v>0.003489464501409207</v>
       </c>
       <c r="R4" t="n">
-        <v>87.63583777853556</v>
+        <v>89.62148135004492</v>
       </c>
       <c r="S4" t="n">
         <v>-15</v>
       </c>
       <c r="T4" t="n">
-        <v>0.233869912315142</v>
+        <v>0.2245336196483693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -752,54 +752,54 @@
         <v>2020</v>
       </c>
       <c r="G5" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.4</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>-11538</v>
+        <v>-4835</v>
       </c>
       <c r="L5" t="n">
-        <v>-8058</v>
+        <v>-4690</v>
       </c>
       <c r="M5" t="n">
-        <v>6351</v>
+        <v>4481</v>
       </c>
       <c r="N5" t="n">
-        <v>-3480</v>
+        <v>-145</v>
       </c>
       <c r="O5" t="n">
-        <v>-871</v>
+        <v>-526</v>
       </c>
       <c r="P5" t="n">
-        <v>2102</v>
+        <v>1735</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.547945205479452</v>
+        <v>-0.03235884847132336</v>
       </c>
       <c r="R5" t="n">
-        <v>95.71818147370497</v>
+        <v>102.6860483588371</v>
       </c>
       <c r="S5" t="n">
         <v>-15</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2031176192725555</v>
+        <v>0.1785315777728186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -818,54 +818,54 @@
         <v>2020</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>-14670</v>
+        <v>-6260</v>
       </c>
       <c r="L6" t="n">
-        <v>-9456</v>
+        <v>-6154</v>
       </c>
       <c r="M6" t="n">
-        <v>7017</v>
+        <v>4519</v>
       </c>
       <c r="N6" t="n">
-        <v>-5214</v>
+        <v>-106</v>
       </c>
       <c r="O6" t="n">
-        <v>-550</v>
+        <v>-470</v>
       </c>
       <c r="P6" t="n">
-        <v>2358</v>
+        <v>1760</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.7430525865754596</v>
+        <v>-0.02345651692852401</v>
       </c>
       <c r="R6" t="n">
-        <v>92.32897151037912</v>
+        <v>105.02499677548</v>
       </c>
       <c r="S6" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2176143651132963</v>
+        <v>0.1792431953972118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -884,54 +884,54 @@
         <v>2020</v>
       </c>
       <c r="G7" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K7" t="n">
-        <v>-14738</v>
+        <v>-7125</v>
       </c>
       <c r="L7" t="n">
-        <v>-8938</v>
+        <v>-5752</v>
       </c>
       <c r="M7" t="n">
-        <v>5140</v>
+        <v>5015</v>
       </c>
       <c r="N7" t="n">
-        <v>-5800</v>
+        <v>-1373</v>
       </c>
       <c r="O7" t="n">
-        <v>-851</v>
+        <v>-609</v>
       </c>
       <c r="P7" t="n">
-        <v>1639</v>
+        <v>1995</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.1284046692607</v>
+        <v>-0.2737786640079761</v>
       </c>
       <c r="R7" t="n">
-        <v>104.1541502494569</v>
+        <v>103.2654490209304</v>
       </c>
       <c r="S7" t="n">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1906614785992218</v>
+        <v>0.182851445663011</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -950,54 +950,54 @@
         <v>2020</v>
       </c>
       <c r="G8" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="I8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K8" t="n">
-        <v>-16766</v>
+        <v>-7420</v>
       </c>
       <c r="L8" t="n">
-        <v>-9559</v>
+        <v>-5842</v>
       </c>
       <c r="M8" t="n">
-        <v>6883</v>
+        <v>7729</v>
       </c>
       <c r="N8" t="n">
-        <v>-7207</v>
+        <v>-1578</v>
       </c>
       <c r="O8" t="n">
-        <v>-541</v>
+        <v>-827</v>
       </c>
       <c r="P8" t="n">
-        <v>2319</v>
+        <v>2112</v>
       </c>
       <c r="Q8" t="n">
-        <v>-1.047072497457504</v>
+        <v>-0.204166127571484</v>
       </c>
       <c r="R8" t="n">
-        <v>91.99215641961021</v>
+        <v>87.48074096377917</v>
       </c>
       <c r="S8" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2163300886241465</v>
+        <v>0.2365118385302109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1016,54 +1016,54 @@
         <v>2020</v>
       </c>
       <c r="G9" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>1.2</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>-18189</v>
+        <v>-7783</v>
       </c>
       <c r="L9" t="n">
-        <v>-10128</v>
+        <v>-5248</v>
       </c>
       <c r="M9" t="n">
-        <v>6585</v>
+        <v>5910</v>
       </c>
       <c r="N9" t="n">
-        <v>-8061</v>
+        <v>-2535</v>
       </c>
       <c r="O9" t="n">
-        <v>-609</v>
+        <v>-806</v>
       </c>
       <c r="P9" t="n">
-        <v>2319</v>
+        <v>1769</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1.224145785876993</v>
+        <v>-0.4289340101522843</v>
       </c>
       <c r="R9" t="n">
-        <v>92.760572392355</v>
+        <v>100.7293316225094</v>
       </c>
       <c r="S9" t="n">
-        <v>-14</v>
+        <v>-15.5</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2144267274107821</v>
+        <v>0.2094754653130288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1082,112 +1082,3478 @@
         <v>2020</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H10" t="n">
-        <v>2.600000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>-20228</v>
+        <v>-8134</v>
       </c>
       <c r="L10" t="n">
-        <v>-11160</v>
+        <v>-6115</v>
       </c>
       <c r="M10" t="n">
-        <v>4471</v>
+        <v>7713</v>
       </c>
       <c r="N10" t="n">
-        <v>-9068</v>
+        <v>-2019</v>
       </c>
       <c r="O10" t="n">
-        <v>-526</v>
+        <v>-827</v>
       </c>
       <c r="P10" t="n">
-        <v>1620</v>
+        <v>2020</v>
       </c>
       <c r="Q10" t="n">
-        <v>-2.028181614851264</v>
+        <v>-0.2617658498638662</v>
       </c>
       <c r="R10" t="n">
-        <v>98.26025727144668</v>
+        <v>87.29497176687636</v>
       </c>
       <c r="S10" t="n">
         <v>-15</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1751286065757101</v>
+        <v>0.2338908336574614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>300</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-8218</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-7687</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4828</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-531</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-430</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1828</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.109983429991715</v>
+      </c>
+      <c r="R11" t="n">
+        <v>104.7663204327475</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.1789560894780447</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>28</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>45</v>
+      </c>
+      <c r="J12" t="n">
+        <v>250</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-8255</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-5598</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6381</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-2657</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-871</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2102</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.4163924149819778</v>
+      </c>
+      <c r="R12" t="n">
+        <v>94.7003494688595</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.2089014261087604</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G13" t="n">
+        <v>70</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" t="n">
+        <v>250</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-8814</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-6542</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4478</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-2272</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-526</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1735</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.5073693613220187</v>
+      </c>
+      <c r="R13" t="n">
+        <v>103.1441006854517</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.1737382760160786</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B14" t="n">
+        <v>48</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>90</v>
+      </c>
+      <c r="J14" t="n">
+        <v>450</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-9076</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-6388</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4317</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-2688</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-800</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1827</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.6226546212647672</v>
+      </c>
+      <c r="R14" t="n">
+        <v>114.3194710668036</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1593699328237202</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G15" t="n">
+        <v>20</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>85</v>
+      </c>
+      <c r="J15" t="n">
+        <v>200</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-9399</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-6604</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5261</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-2795</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-550</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1990</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.5312678198061205</v>
+      </c>
+      <c r="R15" t="n">
+        <v>95.91575663829487</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.2079452575555978</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>45</v>
+      </c>
+      <c r="J16" t="n">
+        <v>150</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-10197</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-6993</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6523</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-3204</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-871</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2102</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.4911850375594052</v>
+      </c>
+      <c r="R16" t="n">
+        <v>96.1218073397385</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.2029740916756094</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>65</v>
+      </c>
+      <c r="J17" t="n">
+        <v>400</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-10390</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-8697</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5620</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-1693</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-609</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1995</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.3012455516014235</v>
+      </c>
+      <c r="R17" t="n">
+        <v>100.0767418979617</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.1900355871886121</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G18" t="n">
+        <v>85</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>450</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-10824</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-6876</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7641</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-3948</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-827</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.5166862976050255</v>
+      </c>
+      <c r="R18" t="n">
+        <v>87.63583777853556</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.233869912315142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B19" t="n">
+        <v>75</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>95</v>
+      </c>
+      <c r="J19" t="n">
+        <v>250</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-10890</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-6729</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5051</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-4161</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-550</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1863</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.823797267867749</v>
+      </c>
+      <c r="R19" t="n">
+        <v>95.27296920725055</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.2060978024153633</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G20" t="n">
+        <v>80</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>45</v>
+      </c>
+      <c r="J20" t="n">
+        <v>400</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-11538</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-8058</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6351</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-3480</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-871</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2102</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.547945205479452</v>
+      </c>
+      <c r="R20" t="n">
+        <v>95.71818147370497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2031176192725555</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B21" t="n">
+        <v>49</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="n">
+        <v>450</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-11870</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-8551</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6324</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-3319</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-844</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2570</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.5248260594560404</v>
+      </c>
+      <c r="R21" t="n">
+        <v>98.68724925785986</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.1963946869070209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B22" t="n">
+        <v>69</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G22" t="n">
+        <v>35</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>85</v>
+      </c>
+      <c r="J22" t="n">
+        <v>200</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-12152</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-7793</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4602</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-4359</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-742</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2077</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.9471968709256845</v>
+      </c>
+      <c r="R22" t="n">
+        <v>112.5957877677583</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.1644936983920035</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B23" t="n">
+        <v>70</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G23" t="n">
+        <v>90</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>350</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-12996</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-7988</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7637</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-5008</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-827</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.6557548775697263</v>
+      </c>
+      <c r="R23" t="n">
+        <v>88.05606822314756</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.2325520492339924</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n">
+        <v>39</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G24" t="n">
+        <v>15</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>350</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-13035</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-7404</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5631</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-5631</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-550</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1990</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>93.48674000012801</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.2104421949920085</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>35</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G25" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>500</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-13196</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-8331</v>
+      </c>
+      <c r="M25" t="n">
+        <v>9585</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-4865</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-571</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1877</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.5075639019300991</v>
+      </c>
+      <c r="R25" t="n">
+        <v>77.49948403861238</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-12</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2366197183098591</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B26" t="n">
+        <v>54</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G26" t="n">
+        <v>55</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>100</v>
+      </c>
+      <c r="J26" t="n">
+        <v>400</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-13722</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-8665</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4133</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-5057</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-742</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1827</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-1.223566416646504</v>
+      </c>
+      <c r="R26" t="n">
+        <v>112.8835150976274</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1587224776191628</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G27" t="n">
+        <v>55</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>30</v>
+      </c>
+      <c r="J27" t="n">
+        <v>300</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-13774</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-7786</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5716</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-5988</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-742</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1769</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-1.047585724282715</v>
+      </c>
+      <c r="R27" t="n">
+        <v>102.3271170475087</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.2172848145556333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B28" t="n">
+        <v>72</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G28" t="n">
+        <v>80</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>350</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-14357</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-7889</v>
+      </c>
+      <c r="M28" t="n">
+        <v>9589</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-6468</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-541</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1877</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-0.6745228908123891</v>
+      </c>
+      <c r="R28" t="n">
+        <v>77.41529887523417</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-12</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.2362081551778079</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G29" t="n">
+        <v>25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>85</v>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-14474</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-8176</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4908</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-6298</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-628</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1657</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-1.28321108394458</v>
+      </c>
+      <c r="R29" t="n">
+        <v>97.94002782231399</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.1833740831295844</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>50</v>
+      </c>
+      <c r="J30" t="n">
+        <v>500</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-14670</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-9456</v>
+      </c>
+      <c r="M30" t="n">
+        <v>7017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-5214</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-550</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2358</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.7430525865754596</v>
+      </c>
+      <c r="R30" t="n">
+        <v>92.32897151037912</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-13</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.2176143651132963</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G31" t="n">
+        <v>90</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>50</v>
+      </c>
+      <c r="J31" t="n">
+        <v>200</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-14738</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-8938</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5140</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-5800</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-851</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1639</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-1.1284046692607</v>
+      </c>
+      <c r="R31" t="n">
+        <v>104.1541502494569</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.1906614785992218</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G32" t="n">
+        <v>15</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>65</v>
+      </c>
+      <c r="J32" t="n">
+        <v>250</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-15254</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-9927</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5611</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-5327</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-737</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1995</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-0.9493851363393334</v>
+      </c>
+      <c r="R32" t="n">
+        <v>102.0207586004814</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.1910532881839244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>44</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G33" t="n">
+        <v>40</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I33" t="n">
+        <v>40</v>
+      </c>
+      <c r="J33" t="n">
+        <v>100</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-15310</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-7992</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6683</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-7318</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-827</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2102</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-1.09501720784079</v>
+      </c>
+      <c r="R33" t="n">
+        <v>91.35412763991931</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.2132275923986234</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>43</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G34" t="n">
+        <v>50</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>100</v>
+      </c>
+      <c r="J34" t="n">
+        <v>200</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-15942</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-9691</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4132</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-6251</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-742</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1827</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-1.512826718296225</v>
+      </c>
+      <c r="R34" t="n">
+        <v>112.6392354685394</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.1580348499515973</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B35" t="n">
+        <v>61</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>60</v>
+      </c>
+      <c r="J35" t="n">
+        <v>450</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-15942</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-10489</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5324</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-5453</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-1109</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2108</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-1.024229902329076</v>
+      </c>
+      <c r="R35" t="n">
+        <v>103.3715460626189</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.1820060105184072</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B36" t="n">
+        <v>76</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G36" t="n">
+        <v>30</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>60</v>
+      </c>
+      <c r="J36" t="n">
+        <v>500</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-16107</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-11731</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5807</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-4376</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-609</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1935</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-0.7535732736352678</v>
+      </c>
+      <c r="R36" t="n">
+        <v>98.41251952470292</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.1942483209919063</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B37" t="n">
+        <v>56</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G37" t="n">
+        <v>45</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" t="n">
+        <v>450</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-16586</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-9986</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5396</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-6600</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-851</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1639</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-1.223128243143069</v>
+      </c>
+      <c r="R37" t="n">
+        <v>101.1501476199005</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.1869903632320237</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G38" t="n">
+        <v>95</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>50</v>
+      </c>
+      <c r="J38" t="n">
+        <v>250</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-16766</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-9559</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6883</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-7207</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-541</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2319</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-1.047072497457504</v>
+      </c>
+      <c r="R38" t="n">
+        <v>91.99215641961021</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.2163300886241465</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B39" t="n">
+        <v>33</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G39" t="n">
+        <v>30</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>55</v>
+      </c>
+      <c r="J39" t="n">
+        <v>350</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-17230</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-10248</v>
+      </c>
+      <c r="M39" t="n">
+        <v>6629</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-6982</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-609</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2358</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-1.053250867400815</v>
+      </c>
+      <c r="R39" t="n">
+        <v>93.05664417903053</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-13</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.2154171066525871</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" t="n">
+        <v>18</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G40" t="n">
+        <v>45</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>50</v>
+      </c>
+      <c r="J40" t="n">
+        <v>150</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-17649</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-9258</v>
+      </c>
+      <c r="M40" t="n">
+        <v>6173</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-8391</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-526</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1776</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-1.359306658026891</v>
+      </c>
+      <c r="R40" t="n">
+        <v>93.87048394467351</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.202980722501215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G41" t="n">
+        <v>80</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>55</v>
+      </c>
+      <c r="J41" t="n">
+        <v>350</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-18189</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-10128</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6585</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-8061</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-609</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2319</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1.224145785876993</v>
+      </c>
+      <c r="R41" t="n">
+        <v>92.760572392355</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.2144267274107821</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G42" t="n">
+        <v>75</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>50</v>
+      </c>
+      <c r="J42" t="n">
+        <v>500</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-18214</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-10268</v>
+      </c>
+      <c r="M42" t="n">
+        <v>6905</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-7946</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-571</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2319</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-1.150760318609703</v>
+      </c>
+      <c r="R42" t="n">
+        <v>92.17411824960259</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-13</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.2169442433019551</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B43" t="n">
+        <v>58</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G43" t="n">
+        <v>55</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>35</v>
+      </c>
+      <c r="J43" t="n">
+        <v>300</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-19699</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-10431</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5698</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-9268</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-742</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1769</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-1.626535626535627</v>
+      </c>
+      <c r="R43" t="n">
+        <v>100.9592542527541</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.2063882063882064</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B44" t="n">
+        <v>59</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G44" t="n">
+        <v>20</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10</v>
+      </c>
+      <c r="J44" t="n">
+        <v>200</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-20046</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-10974</v>
+      </c>
+      <c r="M44" t="n">
+        <v>14255</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-9072</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-827</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1135</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-0.6364082777972642</v>
+      </c>
+      <c r="R44" t="n">
+        <v>65.08429550327604</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-10</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.2778674149421256</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G45" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I45" t="n">
+        <v>100</v>
+      </c>
+      <c r="J45" t="n">
+        <v>100</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-20228</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-11160</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4471</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-9068</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-526</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1620</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-2.028181614851264</v>
+      </c>
+      <c r="R45" t="n">
+        <v>98.26025727144668</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.1751286065757101</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>60</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G46" t="n">
+        <v>30</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>60</v>
+      </c>
+      <c r="J46" t="n">
+        <v>200</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-20390</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-12379</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5807</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-8011</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-609</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1935</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.379541932150852</v>
+      </c>
+      <c r="R46" t="n">
+        <v>96.05961989876829</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.193903909075254</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G47" t="n">
+        <v>45</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>60</v>
+      </c>
+      <c r="J47" t="n">
+        <v>350</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-20452</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-12769</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5104</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-7683</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-800</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2063</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.505289968652038</v>
+      </c>
+      <c r="R47" t="n">
+        <v>108.871001448238</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.1777037617554859</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B48" t="n">
+        <v>34</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G48" t="n">
+        <v>35</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>60</v>
+      </c>
+      <c r="J48" t="n">
+        <v>400</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-20771</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-11708</v>
+      </c>
+      <c r="M48" t="n">
+        <v>6373</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-9063</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-541</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1990</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-1.422093205711596</v>
+      </c>
+      <c r="R48" t="n">
+        <v>91.96040580362984</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.209163659187196</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B49" t="n">
+        <v>51</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G49" t="n">
+        <v>45</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>75</v>
+      </c>
+      <c r="J49" t="n">
+        <v>150</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-20905</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-11279</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5587</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-9626</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-541</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1990</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-1.722928226239484</v>
+      </c>
+      <c r="R49" t="n">
+        <v>92.6508358984332</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.2069088956506175</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B50" t="n">
+        <v>74</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G50" t="n">
+        <v>40</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>40</v>
+      </c>
+      <c r="J50" t="n">
+        <v>200</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-21642</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-11763</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5680</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-9879</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-742</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1553</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-1.739260563380282</v>
+      </c>
+      <c r="R50" t="n">
+        <v>99.63472799174214</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.1991197183098592</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n">
+        <v>32</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G51" t="n">
+        <v>35</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>65</v>
+      </c>
+      <c r="J51" t="n">
+        <v>200</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-23109</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-11613</v>
+      </c>
+      <c r="M51" t="n">
+        <v>6101</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-11496</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-541</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1990</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-1.884281265366333</v>
+      </c>
+      <c r="R51" t="n">
+        <v>93.36947446184254</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-14</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.2043927225045075</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B52" t="n">
+        <v>29</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G52" t="n">
+        <v>60</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>100</v>
+      </c>
+      <c r="J52" t="n">
+        <v>100</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-23116</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-12869</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4139</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-10247</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-737</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1827</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-2.475718772650399</v>
+      </c>
+      <c r="R52" t="n">
+        <v>109.3628986993301</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.1560763469437062</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B53" t="n">
+        <v>16</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G53" t="n">
+        <v>55</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>300</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-23480</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-12936</v>
+      </c>
+      <c r="M53" t="n">
+        <v>10647</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-10544</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-871</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2131</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-0.9903259134028365</v>
+      </c>
+      <c r="R53" t="n">
+        <v>74.32481974450063</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-12</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.2498356344510191</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B54" t="n">
+        <v>40</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G54" t="n">
+        <v>10</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>15</v>
+      </c>
+      <c r="J54" t="n">
+        <v>100</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-24071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-12639</v>
+      </c>
+      <c r="M54" t="n">
+        <v>6365</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-11432</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-721</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1273</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-1.796072270227808</v>
+      </c>
+      <c r="R54" t="n">
+        <v>94.11506829625927</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.2711704634721131</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B55" t="n">
+        <v>62</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G55" t="n">
+        <v>95</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>150</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-27827</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-14780</v>
+      </c>
+      <c r="M55" t="n">
+        <v>16687</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-13047</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-723</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1015</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-0.781866123329538</v>
+      </c>
+      <c r="R55" t="n">
+        <v>61.39497016759469</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-10</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.3132977767124109</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B56" t="n">
+        <v>26</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G56" t="n">
+        <v>95</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>35</v>
+      </c>
+      <c r="J56" t="n">
+        <v>200</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-28659</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-14933</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5606</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-13726</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-800</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1520</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-2.448448091330717</v>
+      </c>
+      <c r="R56" t="n">
+        <v>101.6981383568785</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.2029967891544774</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B57" t="n">
+        <v>66</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G57" t="n">
+        <v>100</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I57" t="n">
+        <v>25</v>
+      </c>
+      <c r="J57" t="n">
+        <v>150</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-30575</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-16867</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5756</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-13708</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-737</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1520</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-2.381514940931202</v>
+      </c>
+      <c r="R57" t="n">
+        <v>104.0989784932963</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.2237665045170257</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B58" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>NIKKEI</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2020</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G58" t="n">
         <v>5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H58" t="n">
         <v>1.6</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I58" t="n">
         <v>70</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J58" t="n">
         <v>100</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K58" t="n">
         <v>-31207</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L58" t="n">
         <v>-15972</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M58" t="n">
         <v>6053</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N58" t="n">
         <v>-15235</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O58" t="n">
         <v>-550</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P58" t="n">
         <v>1637</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q58" t="n">
         <v>-2.516933751858582</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R58" t="n">
         <v>88.18233471434793</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S58" t="n">
         <v>-14</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T58" t="n">
         <v>0.2058483396662812</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B59" t="n">
+        <v>68</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G59" t="n">
+        <v>80</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>25</v>
+      </c>
+      <c r="J59" t="n">
+        <v>100</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-35815</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-19252</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5786</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-16563</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-737</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1520</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-2.862599377808503</v>
+      </c>
+      <c r="R59" t="n">
+        <v>99.96878510957839</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-17</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.226408572416177</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B60" t="n">
+        <v>24</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G60" t="n">
+        <v>55</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>100</v>
+      </c>
+      <c r="J60" t="n">
+        <v>50</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-47273</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-23718</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4133</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-23555</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-737</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1827</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-5.699249939511251</v>
+      </c>
+      <c r="R60" t="n">
+        <v>105.1739024773804</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-19</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.1468666827969998</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B61" t="n">
+        <v>65</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G61" t="n">
+        <v>85</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I61" t="n">
+        <v>75</v>
+      </c>
+      <c r="J61" t="n">
+        <v>50</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-49776</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-25083</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4587</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-24693</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-737</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1843</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-5.383257030739045</v>
+      </c>
+      <c r="R61" t="n">
+        <v>105.0037488655043</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-18</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.1571833442337039</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B62" t="n">
+        <v>53</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G62" t="n">
+        <v>45</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I62" t="n">
+        <v>10</v>
+      </c>
+      <c r="J62" t="n">
+        <v>50</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-128675</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-64369</v>
+      </c>
+      <c r="M62" t="n">
+        <v>14089</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-64306</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-827</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1224</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-4.564269997870679</v>
+      </c>
+      <c r="R62" t="n">
+        <v>62.17928490865919</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-10</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.2637518631556534</v>
       </c>
     </row>
   </sheetData>

--- a/result/TrailATR/summary_NIKKEI_M15_2017-2020_0.xlsx
+++ b/result/TrailATR/summary_NIKKEI_M15_2017-2020_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2314,10 +2314,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2336,54 +2336,54 @@
         <v>2020</v>
       </c>
       <c r="G29" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="H29" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K29" t="n">
-        <v>-14474</v>
+        <v>-14373</v>
       </c>
       <c r="L29" t="n">
-        <v>-8176</v>
+        <v>-9519</v>
       </c>
       <c r="M29" t="n">
-        <v>4908</v>
+        <v>4698</v>
       </c>
       <c r="N29" t="n">
-        <v>-6298</v>
+        <v>-4854</v>
       </c>
       <c r="O29" t="n">
-        <v>-628</v>
+        <v>-526</v>
       </c>
       <c r="P29" t="n">
-        <v>1657</v>
+        <v>1760</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1.28321108394458</v>
+        <v>-1.033205619412516</v>
       </c>
       <c r="R29" t="n">
-        <v>97.94002782231399</v>
+        <v>103.3509015880977</v>
       </c>
       <c r="S29" t="n">
         <v>-15</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1833740831295844</v>
+        <v>0.1768837803320562</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2402,54 +2402,54 @@
         <v>2020</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H30" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="I30" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>-14670</v>
+        <v>-14474</v>
       </c>
       <c r="L30" t="n">
-        <v>-9456</v>
+        <v>-8176</v>
       </c>
       <c r="M30" t="n">
-        <v>7017</v>
+        <v>4908</v>
       </c>
       <c r="N30" t="n">
-        <v>-5214</v>
+        <v>-6298</v>
       </c>
       <c r="O30" t="n">
-        <v>-550</v>
+        <v>-628</v>
       </c>
       <c r="P30" t="n">
-        <v>2358</v>
+        <v>1657</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.7430525865754596</v>
+        <v>-1.28321108394458</v>
       </c>
       <c r="R30" t="n">
-        <v>92.32897151037912</v>
+        <v>97.94002782231399</v>
       </c>
       <c r="S30" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2176143651132963</v>
+        <v>0.1833740831295844</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2468,54 +2468,54 @@
         <v>2020</v>
       </c>
       <c r="G31" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="I31" t="n">
         <v>50</v>
       </c>
       <c r="J31" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K31" t="n">
-        <v>-14738</v>
+        <v>-14670</v>
       </c>
       <c r="L31" t="n">
-        <v>-8938</v>
+        <v>-9456</v>
       </c>
       <c r="M31" t="n">
-        <v>5140</v>
+        <v>7017</v>
       </c>
       <c r="N31" t="n">
-        <v>-5800</v>
+        <v>-5214</v>
       </c>
       <c r="O31" t="n">
-        <v>-851</v>
+        <v>-550</v>
       </c>
       <c r="P31" t="n">
-        <v>1639</v>
+        <v>2358</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.1284046692607</v>
+        <v>-0.7430525865754596</v>
       </c>
       <c r="R31" t="n">
-        <v>104.1541502494569</v>
+        <v>92.32897151037912</v>
       </c>
       <c r="S31" t="n">
-        <v>-17</v>
+        <v>-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1906614785992218</v>
+        <v>0.2176143651132963</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2534,54 +2534,54 @@
         <v>2020</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="H32" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J32" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
-        <v>-15254</v>
+        <v>-14738</v>
       </c>
       <c r="L32" t="n">
-        <v>-9927</v>
+        <v>-8938</v>
       </c>
       <c r="M32" t="n">
-        <v>5611</v>
+        <v>5140</v>
       </c>
       <c r="N32" t="n">
-        <v>-5327</v>
+        <v>-5800</v>
       </c>
       <c r="O32" t="n">
-        <v>-737</v>
+        <v>-851</v>
       </c>
       <c r="P32" t="n">
-        <v>1995</v>
+        <v>1639</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.9493851363393334</v>
+        <v>-1.1284046692607</v>
       </c>
       <c r="R32" t="n">
-        <v>102.0207586004814</v>
+        <v>104.1541502494569</v>
       </c>
       <c r="S32" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1910532881839244</v>
+        <v>0.1906614785992218</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B33" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2600,54 +2600,54 @@
         <v>2020</v>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H33" t="n">
-        <v>2.600000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I33" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K33" t="n">
-        <v>-15310</v>
+        <v>-15254</v>
       </c>
       <c r="L33" t="n">
-        <v>-7992</v>
+        <v>-9927</v>
       </c>
       <c r="M33" t="n">
-        <v>6683</v>
+        <v>5611</v>
       </c>
       <c r="N33" t="n">
-        <v>-7318</v>
+        <v>-5327</v>
       </c>
       <c r="O33" t="n">
-        <v>-827</v>
+        <v>-737</v>
       </c>
       <c r="P33" t="n">
-        <v>2102</v>
+        <v>1995</v>
       </c>
       <c r="Q33" t="n">
-        <v>-1.09501720784079</v>
+        <v>-0.9493851363393334</v>
       </c>
       <c r="R33" t="n">
-        <v>91.35412763991931</v>
+        <v>102.0207586004814</v>
       </c>
       <c r="S33" t="n">
         <v>-15</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2132275923986234</v>
+        <v>0.1910532881839244</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2666,46 +2666,46 @@
         <v>2020</v>
       </c>
       <c r="G34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I34" t="n">
+        <v>40</v>
+      </c>
+      <c r="J34" t="n">
         <v>100</v>
       </c>
-      <c r="J34" t="n">
-        <v>200</v>
-      </c>
       <c r="K34" t="n">
-        <v>-15942</v>
+        <v>-15310</v>
       </c>
       <c r="L34" t="n">
-        <v>-9691</v>
+        <v>-7992</v>
       </c>
       <c r="M34" t="n">
-        <v>4132</v>
+        <v>6683</v>
       </c>
       <c r="N34" t="n">
-        <v>-6251</v>
+        <v>-7318</v>
       </c>
       <c r="O34" t="n">
-        <v>-742</v>
+        <v>-827</v>
       </c>
       <c r="P34" t="n">
-        <v>1827</v>
+        <v>2102</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.512826718296225</v>
+        <v>-1.09501720784079</v>
       </c>
       <c r="R34" t="n">
-        <v>112.6392354685394</v>
+        <v>91.35412763991931</v>
       </c>
       <c r="S34" t="n">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1580348499515973</v>
+        <v>0.2132275923986234</v>
       </c>
     </row>
     <row r="35">
@@ -2776,10 +2776,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B36" t="n">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2798,54 +2798,54 @@
         <v>2020</v>
       </c>
       <c r="G36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="J36" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K36" t="n">
-        <v>-16107</v>
+        <v>-15942</v>
       </c>
       <c r="L36" t="n">
-        <v>-11731</v>
+        <v>-9691</v>
       </c>
       <c r="M36" t="n">
-        <v>5807</v>
+        <v>4132</v>
       </c>
       <c r="N36" t="n">
-        <v>-4376</v>
+        <v>-6251</v>
       </c>
       <c r="O36" t="n">
-        <v>-609</v>
+        <v>-742</v>
       </c>
       <c r="P36" t="n">
-        <v>1935</v>
+        <v>1827</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.7535732736352678</v>
+        <v>-1.512826718296225</v>
       </c>
       <c r="R36" t="n">
-        <v>98.41251952470292</v>
+        <v>112.6392354685394</v>
       </c>
       <c r="S36" t="n">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1942483209919063</v>
+        <v>0.1580348499515973</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B37" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2864,54 +2864,54 @@
         <v>2020</v>
       </c>
       <c r="G37" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J37" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K37" t="n">
-        <v>-16586</v>
+        <v>-16107</v>
       </c>
       <c r="L37" t="n">
-        <v>-9986</v>
+        <v>-11731</v>
       </c>
       <c r="M37" t="n">
-        <v>5396</v>
+        <v>5807</v>
       </c>
       <c r="N37" t="n">
-        <v>-6600</v>
+        <v>-4376</v>
       </c>
       <c r="O37" t="n">
-        <v>-851</v>
+        <v>-609</v>
       </c>
       <c r="P37" t="n">
-        <v>1639</v>
+        <v>1935</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.223128243143069</v>
+        <v>-0.7535732736352678</v>
       </c>
       <c r="R37" t="n">
-        <v>101.1501476199005</v>
+        <v>98.41251952470292</v>
       </c>
       <c r="S37" t="n">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1869903632320237</v>
+        <v>0.1942483209919063</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2930,54 +2930,54 @@
         <v>2020</v>
       </c>
       <c r="G38" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
         <v>50</v>
       </c>
       <c r="J38" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K38" t="n">
-        <v>-16766</v>
+        <v>-16586</v>
       </c>
       <c r="L38" t="n">
-        <v>-9559</v>
+        <v>-9986</v>
       </c>
       <c r="M38" t="n">
-        <v>6883</v>
+        <v>5396</v>
       </c>
       <c r="N38" t="n">
-        <v>-7207</v>
+        <v>-6600</v>
       </c>
       <c r="O38" t="n">
-        <v>-541</v>
+        <v>-851</v>
       </c>
       <c r="P38" t="n">
-        <v>2319</v>
+        <v>1639</v>
       </c>
       <c r="Q38" t="n">
-        <v>-1.047072497457504</v>
+        <v>-1.223128243143069</v>
       </c>
       <c r="R38" t="n">
-        <v>91.99215641961021</v>
+        <v>101.1501476199005</v>
       </c>
       <c r="S38" t="n">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="T38" t="n">
-        <v>0.2163300886241465</v>
+        <v>0.1869903632320237</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B39" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2996,54 +2996,54 @@
         <v>2020</v>
       </c>
       <c r="G39" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="H39" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="I39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J39" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K39" t="n">
-        <v>-17230</v>
+        <v>-16766</v>
       </c>
       <c r="L39" t="n">
-        <v>-10248</v>
+        <v>-9559</v>
       </c>
       <c r="M39" t="n">
-        <v>6629</v>
+        <v>6883</v>
       </c>
       <c r="N39" t="n">
-        <v>-6982</v>
+        <v>-7207</v>
       </c>
       <c r="O39" t="n">
-        <v>-609</v>
+        <v>-541</v>
       </c>
       <c r="P39" t="n">
-        <v>2358</v>
+        <v>2319</v>
       </c>
       <c r="Q39" t="n">
-        <v>-1.053250867400815</v>
+        <v>-1.047072497457504</v>
       </c>
       <c r="R39" t="n">
-        <v>93.05664417903053</v>
+        <v>91.99215641961021</v>
       </c>
       <c r="S39" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2154171066525871</v>
+        <v>0.2163300886241465</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3062,54 +3062,54 @@
         <v>2020</v>
       </c>
       <c r="G40" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H40" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="I40" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J40" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K40" t="n">
-        <v>-17649</v>
+        <v>-17230</v>
       </c>
       <c r="L40" t="n">
-        <v>-9258</v>
+        <v>-10248</v>
       </c>
       <c r="M40" t="n">
-        <v>6173</v>
+        <v>6629</v>
       </c>
       <c r="N40" t="n">
-        <v>-8391</v>
+        <v>-6982</v>
       </c>
       <c r="O40" t="n">
-        <v>-526</v>
+        <v>-609</v>
       </c>
       <c r="P40" t="n">
-        <v>1776</v>
+        <v>2358</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.359306658026891</v>
+        <v>-1.053250867400815</v>
       </c>
       <c r="R40" t="n">
-        <v>93.87048394467351</v>
+        <v>93.05664417903053</v>
       </c>
       <c r="S40" t="n">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0.202980722501215</v>
+        <v>0.2154171066525871</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -3128,54 +3128,54 @@
         <v>2020</v>
       </c>
       <c r="G41" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H41" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="I41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J41" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K41" t="n">
-        <v>-18189</v>
+        <v>-17649</v>
       </c>
       <c r="L41" t="n">
-        <v>-10128</v>
+        <v>-9258</v>
       </c>
       <c r="M41" t="n">
-        <v>6585</v>
+        <v>6173</v>
       </c>
       <c r="N41" t="n">
-        <v>-8061</v>
+        <v>-8391</v>
       </c>
       <c r="O41" t="n">
-        <v>-609</v>
+        <v>-526</v>
       </c>
       <c r="P41" t="n">
-        <v>2319</v>
+        <v>1776</v>
       </c>
       <c r="Q41" t="n">
-        <v>-1.224145785876993</v>
+        <v>-1.359306658026891</v>
       </c>
       <c r="R41" t="n">
-        <v>92.760572392355</v>
+        <v>93.87048394467351</v>
       </c>
       <c r="S41" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="T41" t="n">
-        <v>0.2144267274107821</v>
+        <v>0.202980722501215</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -3194,54 +3194,54 @@
         <v>2020</v>
       </c>
       <c r="G42" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H42" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="I42" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K42" t="n">
-        <v>-18214</v>
+        <v>-18189</v>
       </c>
       <c r="L42" t="n">
-        <v>-10268</v>
+        <v>-10128</v>
       </c>
       <c r="M42" t="n">
-        <v>6905</v>
+        <v>6585</v>
       </c>
       <c r="N42" t="n">
-        <v>-7946</v>
+        <v>-8061</v>
       </c>
       <c r="O42" t="n">
-        <v>-571</v>
+        <v>-609</v>
       </c>
       <c r="P42" t="n">
         <v>2319</v>
       </c>
       <c r="Q42" t="n">
-        <v>-1.150760318609703</v>
+        <v>-1.224145785876993</v>
       </c>
       <c r="R42" t="n">
-        <v>92.17411824960259</v>
+        <v>92.760572392355</v>
       </c>
       <c r="S42" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2169442433019551</v>
+        <v>0.2144267274107821</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B43" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -3260,54 +3260,54 @@
         <v>2020</v>
       </c>
       <c r="G43" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="I43" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J43" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>-19699</v>
+        <v>-18214</v>
       </c>
       <c r="L43" t="n">
-        <v>-10431</v>
+        <v>-10268</v>
       </c>
       <c r="M43" t="n">
-        <v>5698</v>
+        <v>6905</v>
       </c>
       <c r="N43" t="n">
-        <v>-9268</v>
+        <v>-7946</v>
       </c>
       <c r="O43" t="n">
-        <v>-742</v>
+        <v>-571</v>
       </c>
       <c r="P43" t="n">
-        <v>1769</v>
+        <v>2319</v>
       </c>
       <c r="Q43" t="n">
-        <v>-1.626535626535627</v>
+        <v>-1.150760318609703</v>
       </c>
       <c r="R43" t="n">
-        <v>100.9592542527541</v>
+        <v>92.17411824960259</v>
       </c>
       <c r="S43" t="n">
-        <v>-17</v>
+        <v>-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2063882063882064</v>
+        <v>0.2169442433019551</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -3326,54 +3326,54 @@
         <v>2020</v>
       </c>
       <c r="G44" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H44" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J44" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K44" t="n">
-        <v>-20046</v>
+        <v>-19699</v>
       </c>
       <c r="L44" t="n">
-        <v>-10974</v>
+        <v>-10431</v>
       </c>
       <c r="M44" t="n">
-        <v>14255</v>
+        <v>5698</v>
       </c>
       <c r="N44" t="n">
-        <v>-9072</v>
+        <v>-9268</v>
       </c>
       <c r="O44" t="n">
-        <v>-827</v>
+        <v>-742</v>
       </c>
       <c r="P44" t="n">
-        <v>1135</v>
+        <v>1769</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.6364082777972642</v>
+        <v>-1.626535626535627</v>
       </c>
       <c r="R44" t="n">
-        <v>65.08429550327604</v>
+        <v>100.9592542527541</v>
       </c>
       <c r="S44" t="n">
-        <v>-10</v>
+        <v>-17</v>
       </c>
       <c r="T44" t="n">
-        <v>0.2778674149421256</v>
+        <v>0.2063882063882064</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3392,54 +3392,54 @@
         <v>2020</v>
       </c>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H45" t="n">
-        <v>2.600000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="I45" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" t="n">
-        <v>-20228</v>
+        <v>-20046</v>
       </c>
       <c r="L45" t="n">
-        <v>-11160</v>
+        <v>-10974</v>
       </c>
       <c r="M45" t="n">
-        <v>4471</v>
+        <v>14255</v>
       </c>
       <c r="N45" t="n">
-        <v>-9068</v>
+        <v>-9072</v>
       </c>
       <c r="O45" t="n">
-        <v>-526</v>
+        <v>-827</v>
       </c>
       <c r="P45" t="n">
-        <v>1620</v>
+        <v>1135</v>
       </c>
       <c r="Q45" t="n">
-        <v>-2.028181614851264</v>
+        <v>-0.6364082777972642</v>
       </c>
       <c r="R45" t="n">
-        <v>98.26025727144668</v>
+        <v>65.08429550327604</v>
       </c>
       <c r="S45" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1751286065757101</v>
+        <v>0.2778674149421256</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B46" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -3458,54 +3458,54 @@
         <v>2020</v>
       </c>
       <c r="G46" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="J46" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>-20390</v>
+        <v>-20228</v>
       </c>
       <c r="L46" t="n">
-        <v>-12379</v>
+        <v>-11160</v>
       </c>
       <c r="M46" t="n">
-        <v>5807</v>
+        <v>4471</v>
       </c>
       <c r="N46" t="n">
-        <v>-8011</v>
+        <v>-9068</v>
       </c>
       <c r="O46" t="n">
-        <v>-609</v>
+        <v>-526</v>
       </c>
       <c r="P46" t="n">
-        <v>1935</v>
+        <v>1620</v>
       </c>
       <c r="Q46" t="n">
-        <v>-1.379541932150852</v>
+        <v>-2.028181614851264</v>
       </c>
       <c r="R46" t="n">
-        <v>96.05961989876829</v>
+        <v>98.26025727144668</v>
       </c>
       <c r="S46" t="n">
         <v>-15</v>
       </c>
       <c r="T46" t="n">
-        <v>0.193903909075254</v>
+        <v>0.1751286065757101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -3524,54 +3524,54 @@
         <v>2020</v>
       </c>
       <c r="G47" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
         <v>60</v>
       </c>
       <c r="J47" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K47" t="n">
-        <v>-20452</v>
+        <v>-20390</v>
       </c>
       <c r="L47" t="n">
-        <v>-12769</v>
+        <v>-12379</v>
       </c>
       <c r="M47" t="n">
-        <v>5104</v>
+        <v>5807</v>
       </c>
       <c r="N47" t="n">
-        <v>-7683</v>
+        <v>-8011</v>
       </c>
       <c r="O47" t="n">
-        <v>-800</v>
+        <v>-609</v>
       </c>
       <c r="P47" t="n">
-        <v>2063</v>
+        <v>1935</v>
       </c>
       <c r="Q47" t="n">
-        <v>-1.505289968652038</v>
+        <v>-1.379541932150852</v>
       </c>
       <c r="R47" t="n">
-        <v>108.871001448238</v>
+        <v>96.05961989876829</v>
       </c>
       <c r="S47" t="n">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="T47" t="n">
-        <v>0.1777037617554859</v>
+        <v>0.193903909075254</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B48" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3590,54 +3590,54 @@
         <v>2020</v>
       </c>
       <c r="G48" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H48" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>60</v>
       </c>
       <c r="J48" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K48" t="n">
-        <v>-20771</v>
+        <v>-20452</v>
       </c>
       <c r="L48" t="n">
-        <v>-11708</v>
+        <v>-12769</v>
       </c>
       <c r="M48" t="n">
-        <v>6373</v>
+        <v>5104</v>
       </c>
       <c r="N48" t="n">
-        <v>-9063</v>
+        <v>-7683</v>
       </c>
       <c r="O48" t="n">
-        <v>-541</v>
+        <v>-800</v>
       </c>
       <c r="P48" t="n">
-        <v>1990</v>
+        <v>2063</v>
       </c>
       <c r="Q48" t="n">
-        <v>-1.422093205711596</v>
+        <v>-1.505289968652038</v>
       </c>
       <c r="R48" t="n">
-        <v>91.96040580362984</v>
+        <v>108.871001448238</v>
       </c>
       <c r="S48" t="n">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="T48" t="n">
-        <v>0.209163659187196</v>
+        <v>0.1777037617554859</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B49" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3656,28 +3656,28 @@
         <v>2020</v>
       </c>
       <c r="G49" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H49" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="I49" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="J49" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K49" t="n">
-        <v>-20905</v>
+        <v>-20771</v>
       </c>
       <c r="L49" t="n">
-        <v>-11279</v>
+        <v>-11708</v>
       </c>
       <c r="M49" t="n">
-        <v>5587</v>
+        <v>6373</v>
       </c>
       <c r="N49" t="n">
-        <v>-9626</v>
+        <v>-9063</v>
       </c>
       <c r="O49" t="n">
         <v>-541</v>
@@ -3686,24 +3686,24 @@
         <v>1990</v>
       </c>
       <c r="Q49" t="n">
-        <v>-1.722928226239484</v>
+        <v>-1.422093205711596</v>
       </c>
       <c r="R49" t="n">
-        <v>92.6508358984332</v>
+        <v>91.96040580362984</v>
       </c>
       <c r="S49" t="n">
         <v>-14</v>
       </c>
       <c r="T49" t="n">
-        <v>0.2069088956506175</v>
+        <v>0.209163659187196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B50" t="n">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3722,54 +3722,54 @@
         <v>2020</v>
       </c>
       <c r="G50" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="I50" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="J50" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K50" t="n">
-        <v>-21642</v>
+        <v>-20905</v>
       </c>
       <c r="L50" t="n">
-        <v>-11763</v>
+        <v>-11279</v>
       </c>
       <c r="M50" t="n">
-        <v>5680</v>
+        <v>5587</v>
       </c>
       <c r="N50" t="n">
-        <v>-9879</v>
+        <v>-9626</v>
       </c>
       <c r="O50" t="n">
-        <v>-742</v>
+        <v>-541</v>
       </c>
       <c r="P50" t="n">
-        <v>1553</v>
+        <v>1990</v>
       </c>
       <c r="Q50" t="n">
-        <v>-1.739260563380282</v>
+        <v>-1.722928226239484</v>
       </c>
       <c r="R50" t="n">
-        <v>99.63472799174214</v>
+        <v>92.6508358984332</v>
       </c>
       <c r="S50" t="n">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="T50" t="n">
-        <v>0.1991197183098592</v>
+        <v>0.2069088956506175</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3788,54 +3788,54 @@
         <v>2020</v>
       </c>
       <c r="G51" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H51" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="J51" t="n">
         <v>200</v>
       </c>
       <c r="K51" t="n">
-        <v>-23109</v>
+        <v>-21642</v>
       </c>
       <c r="L51" t="n">
-        <v>-11613</v>
+        <v>-11763</v>
       </c>
       <c r="M51" t="n">
-        <v>6101</v>
+        <v>5680</v>
       </c>
       <c r="N51" t="n">
-        <v>-11496</v>
+        <v>-9879</v>
       </c>
       <c r="O51" t="n">
-        <v>-541</v>
+        <v>-742</v>
       </c>
       <c r="P51" t="n">
-        <v>1990</v>
+        <v>1553</v>
       </c>
       <c r="Q51" t="n">
-        <v>-1.884281265366333</v>
+        <v>-1.739260563380282</v>
       </c>
       <c r="R51" t="n">
-        <v>93.36947446184254</v>
+        <v>99.63472799174214</v>
       </c>
       <c r="S51" t="n">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="T51" t="n">
-        <v>0.2043927225045075</v>
+        <v>0.1991197183098592</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B52" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3854,54 +3854,54 @@
         <v>2020</v>
       </c>
       <c r="G52" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="I52" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J52" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K52" t="n">
-        <v>-23116</v>
+        <v>-23109</v>
       </c>
       <c r="L52" t="n">
-        <v>-12869</v>
+        <v>-11613</v>
       </c>
       <c r="M52" t="n">
-        <v>4139</v>
+        <v>6101</v>
       </c>
       <c r="N52" t="n">
-        <v>-10247</v>
+        <v>-11496</v>
       </c>
       <c r="O52" t="n">
-        <v>-737</v>
+        <v>-541</v>
       </c>
       <c r="P52" t="n">
-        <v>1827</v>
+        <v>1990</v>
       </c>
       <c r="Q52" t="n">
-        <v>-2.475718772650399</v>
+        <v>-1.884281265366333</v>
       </c>
       <c r="R52" t="n">
-        <v>109.3628986993301</v>
+        <v>93.36947446184254</v>
       </c>
       <c r="S52" t="n">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="T52" t="n">
-        <v>0.1560763469437062</v>
+        <v>0.2043927225045075</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3920,54 +3920,54 @@
         <v>2020</v>
       </c>
       <c r="G53" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H53" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J53" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>-23480</v>
+        <v>-23116</v>
       </c>
       <c r="L53" t="n">
-        <v>-12936</v>
+        <v>-12869</v>
       </c>
       <c r="M53" t="n">
-        <v>10647</v>
+        <v>4139</v>
       </c>
       <c r="N53" t="n">
-        <v>-10544</v>
+        <v>-10247</v>
       </c>
       <c r="O53" t="n">
-        <v>-871</v>
+        <v>-737</v>
       </c>
       <c r="P53" t="n">
-        <v>2131</v>
+        <v>1827</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.9903259134028365</v>
+        <v>-2.475718772650399</v>
       </c>
       <c r="R53" t="n">
-        <v>74.32481974450063</v>
+        <v>109.3628986993301</v>
       </c>
       <c r="S53" t="n">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="T53" t="n">
-        <v>0.2498356344510191</v>
+        <v>0.1560763469437062</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3986,54 +3986,54 @@
         <v>2020</v>
       </c>
       <c r="G54" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="H54" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="I54" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K54" t="n">
-        <v>-24071</v>
+        <v>-23480</v>
       </c>
       <c r="L54" t="n">
-        <v>-12639</v>
+        <v>-12936</v>
       </c>
       <c r="M54" t="n">
-        <v>6365</v>
+        <v>10647</v>
       </c>
       <c r="N54" t="n">
-        <v>-11432</v>
+        <v>-10544</v>
       </c>
       <c r="O54" t="n">
-        <v>-721</v>
+        <v>-871</v>
       </c>
       <c r="P54" t="n">
-        <v>1273</v>
+        <v>2131</v>
       </c>
       <c r="Q54" t="n">
-        <v>-1.796072270227808</v>
+        <v>-0.9903259134028365</v>
       </c>
       <c r="R54" t="n">
-        <v>94.11506829625927</v>
+        <v>74.32481974450063</v>
       </c>
       <c r="S54" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="T54" t="n">
-        <v>0.2711704634721131</v>
+        <v>0.2498356344510191</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B55" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -4052,54 +4052,54 @@
         <v>2020</v>
       </c>
       <c r="G55" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H55" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J55" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>-27827</v>
+        <v>-24071</v>
       </c>
       <c r="L55" t="n">
-        <v>-14780</v>
+        <v>-12639</v>
       </c>
       <c r="M55" t="n">
-        <v>16687</v>
+        <v>6365</v>
       </c>
       <c r="N55" t="n">
-        <v>-13047</v>
+        <v>-11432</v>
       </c>
       <c r="O55" t="n">
-        <v>-723</v>
+        <v>-721</v>
       </c>
       <c r="P55" t="n">
-        <v>1015</v>
+        <v>1273</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.781866123329538</v>
+        <v>-1.796072270227808</v>
       </c>
       <c r="R55" t="n">
-        <v>61.39497016759469</v>
+        <v>94.11506829625927</v>
       </c>
       <c r="S55" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="T55" t="n">
-        <v>0.3132977767124109</v>
+        <v>0.2711704634721131</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B56" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -4121,51 +4121,51 @@
         <v>95</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="I56" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K56" t="n">
-        <v>-28659</v>
+        <v>-27827</v>
       </c>
       <c r="L56" t="n">
-        <v>-14933</v>
+        <v>-14780</v>
       </c>
       <c r="M56" t="n">
-        <v>5606</v>
+        <v>16687</v>
       </c>
       <c r="N56" t="n">
-        <v>-13726</v>
+        <v>-13047</v>
       </c>
       <c r="O56" t="n">
-        <v>-800</v>
+        <v>-723</v>
       </c>
       <c r="P56" t="n">
-        <v>1520</v>
+        <v>1015</v>
       </c>
       <c r="Q56" t="n">
-        <v>-2.448448091330717</v>
+        <v>-0.781866123329538</v>
       </c>
       <c r="R56" t="n">
-        <v>101.6981383568785</v>
+        <v>61.39497016759469</v>
       </c>
       <c r="S56" t="n">
-        <v>-17</v>
+        <v>-10</v>
       </c>
       <c r="T56" t="n">
-        <v>0.2029967891544774</v>
+        <v>0.3132977767124109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B57" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -4184,54 +4184,54 @@
         <v>2020</v>
       </c>
       <c r="G57" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H57" t="n">
-        <v>3.600000000000001</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J57" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K57" t="n">
-        <v>-30575</v>
+        <v>-28659</v>
       </c>
       <c r="L57" t="n">
-        <v>-16867</v>
+        <v>-14933</v>
       </c>
       <c r="M57" t="n">
-        <v>5756</v>
+        <v>5606</v>
       </c>
       <c r="N57" t="n">
-        <v>-13708</v>
+        <v>-13726</v>
       </c>
       <c r="O57" t="n">
-        <v>-737</v>
+        <v>-800</v>
       </c>
       <c r="P57" t="n">
         <v>1520</v>
       </c>
       <c r="Q57" t="n">
-        <v>-2.381514940931202</v>
+        <v>-2.448448091330717</v>
       </c>
       <c r="R57" t="n">
-        <v>104.0989784932963</v>
+        <v>101.6981383568785</v>
       </c>
       <c r="S57" t="n">
         <v>-17</v>
       </c>
       <c r="T57" t="n">
-        <v>0.2237665045170257</v>
+        <v>0.2029967891544774</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -4250,54 +4250,54 @@
         <v>2020</v>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H58" t="n">
-        <v>1.6</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="J58" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K58" t="n">
-        <v>-31207</v>
+        <v>-30575</v>
       </c>
       <c r="L58" t="n">
-        <v>-15972</v>
+        <v>-16867</v>
       </c>
       <c r="M58" t="n">
-        <v>6053</v>
+        <v>5756</v>
       </c>
       <c r="N58" t="n">
-        <v>-15235</v>
+        <v>-13708</v>
       </c>
       <c r="O58" t="n">
-        <v>-550</v>
+        <v>-737</v>
       </c>
       <c r="P58" t="n">
-        <v>1637</v>
+        <v>1520</v>
       </c>
       <c r="Q58" t="n">
-        <v>-2.516933751858582</v>
+        <v>-2.381514940931202</v>
       </c>
       <c r="R58" t="n">
-        <v>88.18233471434793</v>
+        <v>104.0989784932963</v>
       </c>
       <c r="S58" t="n">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="T58" t="n">
-        <v>0.2058483396662812</v>
+        <v>0.2237665045170257</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B59" t="n">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -4316,54 +4316,54 @@
         <v>2020</v>
       </c>
       <c r="G59" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="H59" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="I59" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="J59" t="n">
         <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>-35815</v>
+        <v>-31207</v>
       </c>
       <c r="L59" t="n">
-        <v>-19252</v>
+        <v>-15972</v>
       </c>
       <c r="M59" t="n">
-        <v>5786</v>
+        <v>6053</v>
       </c>
       <c r="N59" t="n">
-        <v>-16563</v>
+        <v>-15235</v>
       </c>
       <c r="O59" t="n">
-        <v>-737</v>
+        <v>-550</v>
       </c>
       <c r="P59" t="n">
-        <v>1520</v>
+        <v>1637</v>
       </c>
       <c r="Q59" t="n">
-        <v>-2.862599377808503</v>
+        <v>-2.516933751858582</v>
       </c>
       <c r="R59" t="n">
-        <v>99.96878510957839</v>
+        <v>88.18233471434793</v>
       </c>
       <c r="S59" t="n">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="T59" t="n">
-        <v>0.226408572416177</v>
+        <v>0.2058483396662812</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B60" t="n">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -4382,54 +4382,54 @@
         <v>2020</v>
       </c>
       <c r="G60" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="H60" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
         <v>100</v>
       </c>
-      <c r="J60" t="n">
-        <v>50</v>
-      </c>
       <c r="K60" t="n">
-        <v>-47273</v>
+        <v>-35815</v>
       </c>
       <c r="L60" t="n">
-        <v>-23718</v>
+        <v>-19252</v>
       </c>
       <c r="M60" t="n">
-        <v>4133</v>
+        <v>5786</v>
       </c>
       <c r="N60" t="n">
-        <v>-23555</v>
+        <v>-16563</v>
       </c>
       <c r="O60" t="n">
         <v>-737</v>
       </c>
       <c r="P60" t="n">
-        <v>1827</v>
+        <v>1520</v>
       </c>
       <c r="Q60" t="n">
-        <v>-5.699249939511251</v>
+        <v>-2.862599377808503</v>
       </c>
       <c r="R60" t="n">
-        <v>105.1739024773804</v>
+        <v>99.96878510957839</v>
       </c>
       <c r="S60" t="n">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="T60" t="n">
-        <v>0.1468666827969998</v>
+        <v>0.226408572416177</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B61" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -4448,54 +4448,54 @@
         <v>2020</v>
       </c>
       <c r="G61" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="H61" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J61" t="n">
         <v>50</v>
       </c>
       <c r="K61" t="n">
-        <v>-49776</v>
+        <v>-47273</v>
       </c>
       <c r="L61" t="n">
-        <v>-25083</v>
+        <v>-23718</v>
       </c>
       <c r="M61" t="n">
-        <v>4587</v>
+        <v>4133</v>
       </c>
       <c r="N61" t="n">
-        <v>-24693</v>
+        <v>-23555</v>
       </c>
       <c r="O61" t="n">
         <v>-737</v>
       </c>
       <c r="P61" t="n">
-        <v>1843</v>
+        <v>1827</v>
       </c>
       <c r="Q61" t="n">
-        <v>-5.383257030739045</v>
+        <v>-5.699249939511251</v>
       </c>
       <c r="R61" t="n">
-        <v>105.0037488655043</v>
+        <v>105.1739024773804</v>
       </c>
       <c r="S61" t="n">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="T61" t="n">
-        <v>0.1571833442337039</v>
+        <v>0.1468666827969998</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B62" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -4514,45 +4514,111 @@
         <v>2020</v>
       </c>
       <c r="G62" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H62" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="J62" t="n">
         <v>50</v>
       </c>
       <c r="K62" t="n">
+        <v>-49776</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-25083</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4587</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-24693</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-737</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1843</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-5.383257030739045</v>
+      </c>
+      <c r="R62" t="n">
+        <v>105.0037488655043</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-18</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.1571833442337039</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B63" t="n">
+        <v>53</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G63" t="n">
+        <v>45</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I63" t="n">
+        <v>10</v>
+      </c>
+      <c r="J63" t="n">
+        <v>50</v>
+      </c>
+      <c r="K63" t="n">
         <v>-128675</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L63" t="n">
         <v>-64369</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M63" t="n">
         <v>14089</v>
       </c>
-      <c r="N62" t="n">
+      <c r="N63" t="n">
         <v>-64306</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O63" t="n">
         <v>-827</v>
       </c>
-      <c r="P62" t="n">
+      <c r="P63" t="n">
         <v>1224</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="Q63" t="n">
         <v>-4.564269997870679</v>
       </c>
-      <c r="R62" t="n">
+      <c r="R63" t="n">
         <v>62.17928490865919</v>
       </c>
-      <c r="S62" t="n">
+      <c r="S63" t="n">
         <v>-10</v>
       </c>
-      <c r="T62" t="n">
+      <c r="T63" t="n">
         <v>0.2637518631556534</v>
       </c>
     </row>
